--- a/wechat/doctor/食物元素表.xlsx
+++ b/wechat/doctor/食物元素表.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hbat_win_vscode\wechat\doctor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C11A64A-96BD-42AF-AA88-440B267D3A92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="38" windowWidth="18960" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="1965" windowWidth="20010" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
-    <t>食物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烟酸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,13 +193,17 @@
   </si>
   <si>
     <t>炒白萝卜丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -298,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,62 +584,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>0.56000000000000005</v>
@@ -635,9 +678,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <f>-C29</f>
@@ -677,9 +720,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -718,9 +761,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -744,9 +787,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -782,9 +825,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -814,7 +857,7 @@
         <v>0.49</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>0.26</v>
@@ -823,15 +866,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>27</v>
@@ -858,9 +901,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -899,9 +942,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -940,9 +983,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -981,9 +1024,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.3</v>
@@ -1022,9 +1065,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3.4</v>
@@ -1060,9 +1103,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -1098,9 +1141,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0.2</v>
@@ -1136,9 +1179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0.6</v>
@@ -1177,9 +1220,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1.3</v>
@@ -1209,9 +1252,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1247,9 +1290,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -1288,9 +1331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1.4</v>
@@ -1326,9 +1369,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0.4</v>
@@ -1367,9 +1410,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>3.1</v>
@@ -1405,9 +1448,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1.9</v>
@@ -1446,9 +1489,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1487,9 +1530,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>1.9</v>
@@ -1525,9 +1568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0.8</v>
@@ -1566,9 +1609,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>1.8</v>
@@ -1604,9 +1647,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>0.7</v>
@@ -1645,9 +1688,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>1.1000000000000001</v>
@@ -1683,9 +1726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>0.14000000000000001</v>
@@ -1732,12 +1775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1745,12 +1788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
